--- a/Fase 2/Evidencias Proyecto/Evidencias de documentacion/Requerimientos Funcionales.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentacion/Requerimientos Funcionales.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\casti\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\casti\Documents\GitHub\Capstone-MusicPro\Fase 2\Evidencias Proyecto\Evidencias de documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{024A34BE-24B7-4C1F-AFC1-F2FCB3FAC8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2290388-7A64-4612-9D6E-03773827CE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,14 +41,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="186">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
   <si>
-    <t>REQUERIMIENTOS FUNCIONALES</t>
-  </si>
-  <si>
     <t>ROL</t>
   </si>
   <si>
@@ -332,13 +329,283 @@
   </si>
   <si>
     <t xml:space="preserve"> RNF-030</t>
+  </si>
+  <si>
+    <t>El usuario debe poder registrarse con un correo electrónico y contraseña.</t>
+  </si>
+  <si>
+    <t>El usuario debe poder iniciar sesión utilizando su correo electrónico y contraseña.</t>
+  </si>
+  <si>
+    <t>El usuario debe poder ver un catálogo de productos.</t>
+  </si>
+  <si>
+    <t>El usuario debe poder agregar productos al carrito de compras.</t>
+  </si>
+  <si>
+    <t>El usuario debe poder modificar las cantidades de productos en el carrito.</t>
+  </si>
+  <si>
+    <t>El usuario debe poder eliminar productos del carrito.</t>
+  </si>
+  <si>
+    <t>El usuario debe poder ver los detalles de un producto seleccionado.</t>
+  </si>
+  <si>
+    <t>El usuario debe poder dejar una reseña de productos que haya comprado.</t>
+  </si>
+  <si>
+    <t>El usuario debe poder completar la compra desde el carrito de compras.</t>
+  </si>
+  <si>
+    <t>El usuario debe poder elegir entre diferentes métodos de pago durante la compra.</t>
+  </si>
+  <si>
+    <t>El usuario debe poder ver el estado actual de sus pedidos.</t>
+  </si>
+  <si>
+    <t>El usuario debe poder utilizar cupones de descuento durante la compra.</t>
+  </si>
+  <si>
+    <t>El usuario debe poder buscar productos por nombre o palabras clave.</t>
+  </si>
+  <si>
+    <t>El usuario debe poder contactar con soporte técnico a través del chatbot.</t>
+  </si>
+  <si>
+    <t>El usuario debe poder ver su historial de pedidos.</t>
+  </si>
+  <si>
+    <t>El sistema debe validar que el correo no esté previamente registrado.</t>
+  </si>
+  <si>
+    <t>Implementar funcionalidad de recuperación de contraseña.</t>
+  </si>
+  <si>
+    <t>Los productos deben poder filtrarse por categoría, precio y popularidad.</t>
+  </si>
+  <si>
+    <t>El sistema debe verificar el stock antes de agregar productos.</t>
+  </si>
+  <si>
+    <t>La cantidad seleccionada debe estar limitada al stock disponible.</t>
+  </si>
+  <si>
+    <t>El sistema debe actualizar el precio total tras eliminar un producto.</t>
+  </si>
+  <si>
+    <t>Deben mostrarse fotos, descripción, precio y reseñas de otros usuarios.</t>
+  </si>
+  <si>
+    <t>Solo pueden reseñar productos adquiridos.</t>
+  </si>
+  <si>
+    <t>El sistema debe procesar la compra y generar una confirmación.</t>
+  </si>
+  <si>
+    <t>Las opciones deben incluir tarjeta de crédito, PayPal y transferencia.</t>
+  </si>
+  <si>
+    <t>Los estados pueden ser: en proceso, enviado, entregado.</t>
+  </si>
+  <si>
+    <t>Cada pedido debe mostrar el total, los productos adquiridos y su estado.</t>
+  </si>
+  <si>
+    <t>Los cupones deben verificarse antes de aplicar el descuento.</t>
+  </si>
+  <si>
+    <t>El sistema debe mostrar resultados relevantes y ordenados.</t>
+  </si>
+  <si>
+    <t>El chatbot debe poder responder preguntas frecuentes sobre productos y pedidos.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir a los administradores gestionar productos y pedidos sin retrasos perceptibles.</t>
+  </si>
+  <si>
+    <t>Los reportes de ventas deben generarse en menos de 5 segundos para periodos de hasta 1 año.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir la actualización masiva de productos en lotes sin afectar la disponibilidad del sistema.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir gestionar los usuarios con roles y permisos diferenciados</t>
+  </si>
+  <si>
+    <t>El sistema debe enviar alertas a los administradores cuando los productos alcancen un stock mínimo.</t>
+  </si>
+  <si>
+    <t>Los administradores deben poder acceder al sistema desde cualquier navegador moderno sin problemas de compatibilidad.</t>
+  </si>
+  <si>
+    <t>La interfaz de administración debe estar protegida con autenticación de dos factores (2FA).</t>
+  </si>
+  <si>
+    <t>Los administradores deben poder exportar reportes en formato CSV o PDF.</t>
+  </si>
+  <si>
+    <t>El sistema debe proporcionar logs de auditoría para todas las acciones realizadas por los administradores.</t>
+  </si>
+  <si>
+    <t>Las actualizaciones de productos deben reflejarse en la tienda en menos de 5 minutos.</t>
+  </si>
+  <si>
+    <t>El sistema debe soportar varios administradores trabajando simultáneamente sin conflicto de datos.</t>
+  </si>
+  <si>
+    <t>La base de datos debe poder manejar hasta 10,000 productos sin comprometer el rendimiento.</t>
+  </si>
+  <si>
+    <t>El sistema debe contar con un sistema de notificación en tiempo real para nuevos pedidos.</t>
+  </si>
+  <si>
+    <t>Los administradores deben poder realizar operaciones de gestión de inventario sin tiempos de espera superiores a 2 segundos.</t>
+  </si>
+  <si>
+    <t>Los logs deben estar disponibles por un periodo de 6 meses.</t>
+  </si>
+  <si>
+    <t>Tiempos de respuesta en la interfaz de administración inferiores a 1 segundo.</t>
+  </si>
+  <si>
+    <t>Optimizar consultas a la base de datos para reportes.</t>
+  </si>
+  <si>
+    <t>Implementar estrategias de procesamiento por lotes.</t>
+  </si>
+  <si>
+    <t>El acceso debe ser controlado a través de roles con permisos granulares.</t>
+  </si>
+  <si>
+    <t>Configurar notificaciones automáticas basadas en reglas predefinidas.</t>
+  </si>
+  <si>
+    <t>Compatibilidad garantizada con Chrome, Firefox, Safari y Edge.</t>
+  </si>
+  <si>
+    <t>Mejorar la seguridad en el acceso de los administradores.</t>
+  </si>
+  <si>
+    <t>Las copias de seguridad deben almacenarse durante al menos 30 días.</t>
+  </si>
+  <si>
+    <t>Opción de exportar datos con filtros de fecha y categoría.</t>
+  </si>
+  <si>
+    <t>Implementar mecanismos de caché que permitan una actualización rápida.</t>
+  </si>
+  <si>
+    <t>Utilizar bloqueo optimista en las transacciones de la base de datos.</t>
+  </si>
+  <si>
+    <t>Uso de índices y estrategias de particionamiento.</t>
+  </si>
+  <si>
+    <t>Notificaciones visibles en el panel de administración.</t>
+  </si>
+  <si>
+    <t>Optimización del backend para consultas rápidas.</t>
+  </si>
+  <si>
+    <t>El sistema debe garantizar tiempos de carga de página inferiores a 2 segundos.</t>
+  </si>
+  <si>
+    <t>El sistema debe ofrecer una interfaz accesible para personas con discapacidades.</t>
+  </si>
+  <si>
+    <t>La plataforma debe ser compatible con navegadores modernos (Chrome, Firefox, Safari, Edge).</t>
+  </si>
+  <si>
+    <t>El sistema debe ser completamente responsivo, adaptándose a dispositivos móviles y tablets.</t>
+  </si>
+  <si>
+    <t>La información personal y de pago del usuario debe estar encriptada en tránsito y en reposo.</t>
+  </si>
+  <si>
+    <t>La plataforma debe ser escalable para manejar hasta 1000 usuarios concurrentes sin degradar el rendimiento.</t>
+  </si>
+  <si>
+    <t>Los usuarios deben recibir confirmaciones de sus acciones (registro, compra, etc.) en menos de 1 minuto.</t>
+  </si>
+  <si>
+    <t>El sistema debe tener un chatbot que responda consultas en menos de 3 segundos.</t>
+  </si>
+  <si>
+    <t>El sistema debe ser fácil de usar, con una curva de aprendizaje mínima para nuevos usuarios.</t>
+  </si>
+  <si>
+    <t>El sistema debe estar disponible el 99.9% del tiempo durante el año.</t>
+  </si>
+  <si>
+    <t>Los usuarios deben poder realizar transacciones en menos de 2 minutos desde el carrito de compras hasta la confirmación del pago.</t>
+  </si>
+  <si>
+    <t>Los usuarios deben poder interactuar con el sistema sin problemas de concurrencia.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir la búsqueda de productos en menos de 1 segundo.</t>
+  </si>
+  <si>
+    <t>El sistema debe ofrecer múltiples opciones de pago y garantizar transacciones seguras.</t>
+  </si>
+  <si>
+    <t>La plataforma debe almacenar el historial de compras por al menos 2 años.</t>
+  </si>
+  <si>
+    <t>Especialmente importante en la navegación de catálogo y el proceso de compra.</t>
+  </si>
+  <si>
+    <t>Cumplimiento de las normas WCAG 2.1 de accesibilidad web.</t>
+  </si>
+  <si>
+    <t>Asegurar compatibilidad en las versiones más recientes de los navegadores.</t>
+  </si>
+  <si>
+    <t>La usabilidad no debe verse afectada al acceder desde pantallas más pequeñas.</t>
+  </si>
+  <si>
+    <t>Uso de protocolos SSL/TLS para seguridad.</t>
+  </si>
+  <si>
+    <t>Uso de infraestructura en la nube con escalabilidad automática.</t>
+  </si>
+  <si>
+    <t>Envío de correos electrónicos automatizados para confirmaciones.</t>
+  </si>
+  <si>
+    <t>Respuesta rápida para mejorar la experiencia del usuario.</t>
+  </si>
+  <si>
+    <t>Realizar pruebas de usabilidad con usuarios reales.</t>
+  </si>
+  <si>
+    <t>Medir la disponibilidad con un sistema de monitoreo de uptime.</t>
+  </si>
+  <si>
+    <t>Optimizar el flujo de compra para minimizar la fricción.</t>
+  </si>
+  <si>
+    <t>Implementar estrategias de manejo de múltiples usuarios concurrentes.</t>
+  </si>
+  <si>
+    <t>Implementar índices de base de datos y caching para acelerar búsquedas.</t>
+  </si>
+  <si>
+    <t>Integración con pasarelas de pago certificadas (Stripe, PayPal).</t>
+  </si>
+  <si>
+    <t>REQUERIMIENTOS NO FUNCIONALES MUSIC PRO</t>
+  </si>
+  <si>
+    <t>REQUERIMIENTOS FUNCIONALES MUSIC PRO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -413,6 +680,13 @@
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -429,38 +703,23 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="3" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="-0.249977111117893"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -478,32 +737,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.249977111117893"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -511,51 +744,102 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -924,510 +1208,574 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="29.125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="85.5" customWidth="1"/>
-    <col min="5" max="5" width="79.25" customWidth="1"/>
-    <col min="6" max="6" width="4" style="1" customWidth="1"/>
-    <col min="7" max="7" width="38.625" customWidth="1"/>
+    <col min="1" max="1" width="3.625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="13" style="9" customWidth="1"/>
+    <col min="3" max="3" width="29.125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="85.5" style="9" customWidth="1"/>
+    <col min="5" max="5" width="79.25" style="9" customWidth="1"/>
+    <col min="6" max="6" width="4" style="16" customWidth="1"/>
+    <col min="7" max="7" width="38.625" style="9" customWidth="1"/>
+    <col min="8" max="16384" width="11" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="10"/>
+    </row>
+    <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10"/>
+      <c r="B3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="16" t="s">
+      <c r="C6" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="5" t="s">
+      <c r="E6" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="16" t="s">
+      <c r="C7" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="5" t="s">
+      <c r="E7" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="17" t="s">
+      <c r="C8" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="5" t="s">
+      <c r="E8" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="16" t="s">
+      <c r="C9" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="5" t="s">
+      <c r="E9" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="17" t="s">
+      <c r="C10" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="5" t="s">
+      <c r="E10" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="16" t="s">
+      <c r="C11" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="5" t="s">
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="17" t="s">
+      <c r="C12" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="5" t="s">
+      <c r="E12" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="16" t="s">
+      <c r="C13" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="5" t="s">
+      <c r="E13" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="17" t="s">
+      <c r="C14" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="5" t="s">
+      <c r="E14" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="16" t="s">
+      <c r="C15" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="5" t="s">
+      <c r="E15" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="17" t="s">
+      <c r="C16" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="5" t="s">
+      <c r="E16" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="16" t="s">
+      <c r="C17" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="5" t="s">
+      <c r="E17" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="17" t="s">
+      <c r="C18" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="5" t="s">
+      <c r="E18" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="5" t="s">
+      <c r="C19" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="5" t="s">
+      <c r="C20" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10"/>
+      <c r="B21" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="5" t="s">
+      <c r="C21" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="5" t="s">
+      <c r="C22" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10"/>
+      <c r="B23" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="5" t="s">
+      <c r="C23" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10"/>
+      <c r="B24" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="5" t="s">
+      <c r="C25" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10"/>
+      <c r="B26" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="5" t="s">
+      <c r="C26" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10"/>
+      <c r="B27" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="5" t="s">
+      <c r="C27" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10"/>
+      <c r="B28" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="5" t="s">
+      <c r="C28" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10"/>
+      <c r="B29" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="5" t="s">
+      <c r="C29" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10"/>
+      <c r="B30" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="5" t="s">
+      <c r="C30" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="10"/>
+      <c r="B31" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="5" t="s">
+      <c r="C31" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="10"/>
+      <c r="B32" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="5" t="s">
+      <c r="C32" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="10"/>
+      <c r="B33" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="2"/>
+      <c r="C33" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F33" s="10"/>
     </row>
     <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="10"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:6" s="14" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="15"/>
     </row>
     <row r="36" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
     </row>
     <row r="37" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
     </row>
     <row r="38" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
@@ -1440,14 +1788,14 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="29.125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="29.125" style="7" customWidth="1"/>
     <col min="4" max="4" width="85.5" customWidth="1"/>
     <col min="5" max="5" width="79.25" customWidth="1"/>
     <col min="6" max="6" width="4" style="1" customWidth="1"/>
@@ -1456,413 +1804,533 @@
   <sheetData>
     <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="9"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="5"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="28" t="s">
         <v>3</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>4</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
-      <c r="B4" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
+      <c r="B4" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>141</v>
+      </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
+      <c r="B5" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>142</v>
+      </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="B6" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
+      <c r="B6" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>143</v>
+      </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
-      <c r="B7" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
+      <c r="B7" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>144</v>
+      </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
+      <c r="B8" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>145</v>
+      </c>
       <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
-      <c r="B9" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
+      <c r="B9" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>146</v>
+      </c>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
+      <c r="B10" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>147</v>
+      </c>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
+      <c r="B11" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>148</v>
+      </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
+      <c r="B12" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>149</v>
+      </c>
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
-      <c r="B13" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
+      <c r="B13" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>150</v>
+      </c>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
+      <c r="B14" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>151</v>
+      </c>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="B15" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
+      <c r="B15" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>152</v>
+      </c>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
-      <c r="B16" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
+      <c r="B16" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>153</v>
+      </c>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
+      <c r="B17" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>154</v>
+      </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
+      <c r="B18" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>140</v>
+      </c>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
+      <c r="B19" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>170</v>
+      </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-      <c r="B20" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
+      <c r="B20" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>171</v>
+      </c>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-      <c r="B21" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
+      <c r="B21" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>172</v>
+      </c>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="B22" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
+      <c r="B22" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>172</v>
+      </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
+      <c r="B23" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>173</v>
+      </c>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
+      <c r="B24" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>174</v>
+      </c>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
-      <c r="B25" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
+      <c r="B25" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>175</v>
+      </c>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
-      <c r="B26" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
+      <c r="B26" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>176</v>
+      </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
-      <c r="B27" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
+      <c r="B27" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>177</v>
+      </c>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
-      <c r="B28" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
+      <c r="B28" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>178</v>
+      </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
-      <c r="B29" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
+      <c r="B29" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>179</v>
+      </c>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
-      <c r="B30" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
+      <c r="B30" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>183</v>
+      </c>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
-      <c r="B31" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
+      <c r="B31" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>182</v>
+      </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
-      <c r="B32" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
+      <c r="B32" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>181</v>
+      </c>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
-      <c r="B33" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="B33" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>180</v>
+      </c>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="9"/>
+      <c r="C34" s="5"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" s="7" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="10"/>
+    <row r="35" spans="1:6" s="4" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="6"/>
     </row>
     <row r="36" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
-      <c r="C36" s="9"/>
+      <c r="C36" s="5"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -1870,7 +2338,7 @@
     <row r="37" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="9"/>
+      <c r="C37" s="5"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -1878,12 +2346,15 @@
     <row r="38" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="9"/>
+      <c r="C38" s="5"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
